--- a/table1.xlsx
+++ b/table1.xlsx
@@ -3115,6 +3115,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
